--- a/Documents/UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/UsersStories/Propre/BacklogExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DropboxEphec\ProjetWeb\Documents\UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A860A-A28F-47F5-B4BD-E4D1FF6F2305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD415A5-8925-4487-A02F-D777D9EC19EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Préparation</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>0h05</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Backlog, User Stories, Home</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Créer db provisoire</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Choix technologiques</t>
   </si>
 </sst>
 </file>
@@ -208,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,82 +726,64 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>100</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>100</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -785,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -807,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -829,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -851,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -866,32 +874,42 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="A15" s="1">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -901,19 +919,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -922,41 +940,33 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -965,18 +975,20 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -985,13 +997,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
@@ -1007,13 +1019,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
@@ -1027,13 +1039,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>45</v>
@@ -1046,11 +1058,21 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1058,10 +1080,18 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1070,10 +1100,18 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1082,24 +1120,20 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1122,20 +1156,24 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1146,30 +1184,22 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1180,9 +1210,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1192,22 +1220,30 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1218,7 +1254,9 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1263,6 +1301,42 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/UsersStories/Propre/BacklogExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DropboxEphec\ProjetWeb\Documents\UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD415A5-8925-4487-A02F-D777D9EC19EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5863526-459E-4965-B4D2-20B6D96B2ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Préparation</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Choix technologiques</t>
+  </si>
+  <si>
+    <t>2h00</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +758,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
